--- a/biology/Médecine/Ligament_sterno-claviculaire_antérieur/Ligament_sterno-claviculaire_antérieur.xlsx
+++ b/biology/Médecine/Ligament_sterno-claviculaire_antérieur/Ligament_sterno-claviculaire_antérieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_sterno-claviculaire_ant%C3%A9rieur</t>
+          <t>Ligament_sterno-claviculaire_antérieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament sterno-claviculaire antérieur est un ligament de l'articulation sterno-claviculaire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ligament_sterno-claviculaire_ant%C3%A9rieur</t>
+          <t>Ligament_sterno-claviculaire_antérieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament sterno-claviculaire antérieur est large bande de fibres recouvrant la surface antérieure de l'articulation.
 Il est attaché en haut à la partie supérieure et antérieure de l'extrémité sternale de la clavicule, passe obliquement vers le bas et vers l'intérieur et se termine sur le pourtour antérieur de l'incisure claviculaire du manubrium sternal.
